--- a/Mini-Project/Mini-Project-Part-1/output/BootcampOutputPart1.xlsx
+++ b/Mini-Project/Mini-Project-Part-1/output/BootcampOutputPart1.xlsx
@@ -14,51 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Total Surveyed</t>
-  </si>
-  <si>
-    <t>Total Bootcamp attendees</t>
-  </si>
-  <si>
-    <t>% attended bootcamp</t>
-  </si>
-  <si>
-    <t>Avg. Age</t>
-  </si>
-  <si>
-    <t>Has a degree</t>
-  </si>
-  <si>
-    <t>% Male</t>
-  </si>
-  <si>
-    <t>% Female</t>
-  </si>
-  <si>
-    <t>% Non Gender Specific</t>
-  </si>
-  <si>
-    <t>Average Post Bootcamp Salary</t>
-  </si>
-  <si>
-    <t>6.10%</t>
-  </si>
-  <si>
-    <t>87.30%</t>
-  </si>
-  <si>
-    <t>59.54%</t>
-  </si>
-  <si>
-    <t>39.14%</t>
-  </si>
-  <si>
-    <t>1.32%</t>
-  </si>
-  <si>
-    <t>$63,741</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Average Age</t>
+  </si>
+  <si>
+    <t>Bootcampers</t>
+  </si>
+  <si>
+    <t>Bootcamper % Respondents</t>
+  </si>
+  <si>
+    <t>Avg Salary Post-BC</t>
+  </si>
+  <si>
+    <t>Fully Degreed BCers %</t>
+  </si>
+  <si>
+    <t>Male BCer %</t>
+  </si>
+  <si>
+    <t>Female BCer %</t>
+  </si>
+  <si>
+    <t>Other Gen / Not Spec %</t>
   </si>
 </sst>
 </file>
@@ -117,11 +96,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,13 +396,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,37 +427,31 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>15620</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:8">
+      <c r="A2" s="2">
+        <v>31.06601466992665</v>
+      </c>
+      <c r="B2" s="2">
         <v>953</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>31.07</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
+      <c r="C2" s="2">
+        <v>6.196358907672302</v>
+      </c>
+      <c r="D2" s="2">
+        <v>63740.50606060606</v>
+      </c>
+      <c r="E2" s="2">
+        <v>72.71634615384616</v>
+      </c>
+      <c r="F2" s="2">
+        <v>59.5438175270108</v>
+      </c>
+      <c r="G2" s="2">
+        <v>39.13565426170468</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1.320528211284511</v>
       </c>
     </row>
   </sheetData>
